--- a/case2_Glu-Fru/_glucose.xlsx
+++ b/case2_Glu-Fru/_glucose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO Papers\Regression_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case2_Glu-Fru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF0C0F7-BA42-46A0-84ED-6AAF505E8A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE1989F-C1CC-4EDC-8FA6-C41CD779E0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="1392" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -313,15 +313,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -344,17 +335,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2083,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,10 +2108,10 @@
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2182,7 +2172,7 @@
         <f>C2*60</f>
         <v>0</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="1">
@@ -2196,14 +2186,14 @@
       <c r="H2" s="1">
         <v>15</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>70</v>
       </c>
       <c r="J2" s="1">
         <f>H2/I2</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <f>420*(0.001)</f>
         <v>0.42</v>
       </c>
@@ -2231,7 +2221,7 @@
       <c r="S2" s="1">
         <v>0</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>0.3</v>
       </c>
     </row>
@@ -2250,7 +2240,7 @@
         <f t="shared" ref="D3:D27" si="1">C3*60</f>
         <v>48</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -2281,13 +2271,14 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>E5*(1/1000)</f>
         <v>0</v>
       </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2304,13 +2295,14 @@
         <f t="shared" si="1"/>
         <v>144.00000000000003</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -2327,13 +2319,14 @@
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -2350,13 +2343,14 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
         <v>1.04382E-2</v>
       </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -2373,14 +2367,14 @@
         <f t="shared" si="1"/>
         <v>288.00000000000006</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>10.4382</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
         <v>8.1351000000000007E-2</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2404,14 +2398,14 @@
         <f t="shared" si="1"/>
         <v>336.00000000000006</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>81.350999999999999</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
         <v>9.6373800000000009E-2</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2428,14 +2422,14 @@
         <f t="shared" si="1"/>
         <v>384</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>96.373800000000003</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
         <v>0.15824159999999998</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2452,13 +2446,14 @@
         <f>C11*60</f>
         <v>432</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>158.24159999999998</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
         <v>0.1539864</v>
       </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -2475,14 +2470,14 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>153.9864</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
         <v>0.13691159999999999</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -2499,14 +2494,14 @@
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>136.91159999999999</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
         <v>0.10920420000000002</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2523,14 +2518,14 @@
         <f t="shared" si="1"/>
         <v>576.00000000000011</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>109.20420000000001</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
         <v>8.3089800000000019E-2</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -2547,14 +2542,14 @@
         <f t="shared" si="1"/>
         <v>624</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>83.089800000000011</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
         <v>5.1742799999999999E-2</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -2571,14 +2566,14 @@
         <f t="shared" si="1"/>
         <v>672.00000000000011</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>51.742799999999995</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
         <v>2.6735399999999999E-2</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -2595,14 +2590,14 @@
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>26.735399999999998</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
         <v>1.07838E-2</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -2619,14 +2614,14 @@
         <f t="shared" si="1"/>
         <v>768</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>10.783799999999999</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>4.8869999999999999E-3</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -2643,14 +2638,14 @@
         <f t="shared" si="1"/>
         <v>816.00000000000011</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>4.8869999999999996</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>2.3165999999999998E-3</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -2667,14 +2662,14 @@
         <f t="shared" si="1"/>
         <v>864</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>2.3165999999999998</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -2691,14 +2686,14 @@
         <f t="shared" si="1"/>
         <v>912.00000000000011</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>0</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -2715,14 +2710,14 @@
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>0</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2739,14 +2734,14 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>0</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -2763,14 +2758,14 @@
         <f t="shared" si="1"/>
         <v>1056</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>0</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -2787,14 +2782,14 @@
         <f t="shared" si="1"/>
         <v>1104.0000000000002</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>0</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -2811,184 +2806,186 @@
         <f t="shared" si="1"/>
         <v>1152.0000000000002</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>0</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>0</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E30" s="10"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E31" s="10"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E32" s="10"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="10"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="10"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="10"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="10"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="10"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="10"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="10"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="10"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="10"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="10"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="10"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="10"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="10"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="10"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="10"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="10"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="10"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="10"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="11"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="11"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="11"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E54" s="11"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E55" s="11"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E56" s="11"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E57" s="11"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E58" s="11"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E59" s="11"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E60" s="11"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E61" s="11"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E62" s="11"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E63" s="11"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E64" s="11"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E65" s="11"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E66" s="11"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E67" s="11"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E68" s="11"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E69" s="11"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E70" s="11"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E71" s="11"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E72" s="11"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E73" s="11"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E74" s="11"/>
+      <c r="E74" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
